--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Ptch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Shh-Ptch1.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H2">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.948717333333334</v>
+        <v>7.163958</v>
       </c>
       <c r="N2">
-        <v>14.846152</v>
+        <v>21.491874</v>
       </c>
       <c r="O2">
-        <v>0.4012480345574643</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="P2">
-        <v>0.4012480345574642</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="Q2">
-        <v>0.1252883263004444</v>
+        <v>0.6293537103</v>
       </c>
       <c r="R2">
-        <v>1.127594936704</v>
+        <v>5.6641833927</v>
       </c>
       <c r="S2">
-        <v>0.4012480345574643</v>
+        <v>0.5236853002292368</v>
       </c>
       <c r="T2">
-        <v>0.4012480345574642</v>
+        <v>0.5236853002292368</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H3">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,25 +626,25 @@
         <v>2.091081</v>
       </c>
       <c r="N3">
-        <v>6.273243000000001</v>
+        <v>6.273242999999999</v>
       </c>
       <c r="O3">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686175</v>
       </c>
       <c r="P3">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686176</v>
       </c>
       <c r="Q3">
-        <v>0.052940594704</v>
+        <v>0.1837014658499999</v>
       </c>
       <c r="R3">
-        <v>0.476465352336</v>
+        <v>1.65331319265</v>
       </c>
       <c r="S3">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686175</v>
       </c>
       <c r="T3">
-        <v>0.1695473967969189</v>
+        <v>0.1528580124686176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H4">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5791203333333333</v>
+        <v>0.4156183333333334</v>
       </c>
       <c r="N4">
-        <v>1.737361</v>
+        <v>1.246855</v>
       </c>
       <c r="O4">
-        <v>0.04695578265444075</v>
+        <v>0.03038169845111343</v>
       </c>
       <c r="P4">
-        <v>0.04695578265444072</v>
+        <v>0.03038169845111344</v>
       </c>
       <c r="Q4">
-        <v>0.01466178251911111</v>
+        <v>0.03651207058333333</v>
       </c>
       <c r="R4">
-        <v>0.131956042672</v>
+        <v>0.32860863525</v>
       </c>
       <c r="S4">
-        <v>0.04695578265444075</v>
+        <v>0.03038169845111343</v>
       </c>
       <c r="T4">
-        <v>0.04695578265444072</v>
+        <v>0.03038169845111344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H5">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.638666333333333</v>
+        <v>3.342326666666667</v>
       </c>
       <c r="N5">
-        <v>10.915999</v>
+        <v>10.02698</v>
       </c>
       <c r="O5">
-        <v>0.2950275023441256</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="P5">
-        <v>0.2950275023441255</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="Q5">
-        <v>0.09212132844977776</v>
+        <v>0.2936233976666667</v>
       </c>
       <c r="R5">
-        <v>0.8290919560479999</v>
+        <v>2.642610579</v>
       </c>
       <c r="S5">
-        <v>0.2950275023441256</v>
+        <v>0.2443240655371678</v>
       </c>
       <c r="T5">
-        <v>0.2950275023441255</v>
+        <v>0.2443240655371678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H6">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1104196666666667</v>
+        <v>0.1557673333333333</v>
       </c>
       <c r="N6">
-        <v>0.331259</v>
+        <v>0.467302</v>
       </c>
       <c r="O6">
-        <v>0.008952961190177161</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="P6">
-        <v>0.008952961190177158</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="Q6">
-        <v>0.002795531507555555</v>
+        <v>0.01368416023333333</v>
       </c>
       <c r="R6">
-        <v>0.025159783568</v>
+        <v>0.1231574421</v>
       </c>
       <c r="S6">
-        <v>0.008952961190177161</v>
+        <v>0.01138659142370381</v>
       </c>
       <c r="T6">
-        <v>0.008952961190177158</v>
+        <v>0.01138659142370381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.02531733333333333</v>
+        <v>0.08785</v>
       </c>
       <c r="H7">
-        <v>0.07595199999999999</v>
+        <v>0.26355</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9653076666666668</v>
+        <v>0.51114</v>
       </c>
       <c r="N7">
-        <v>2.895923</v>
+        <v>1.53342</v>
       </c>
       <c r="O7">
-        <v>0.07826832245687339</v>
+        <v>0.03736433189016073</v>
       </c>
       <c r="P7">
-        <v>0.07826832245687336</v>
+        <v>0.03736433189016074</v>
       </c>
       <c r="Q7">
-        <v>0.02443901596622222</v>
+        <v>0.044903649</v>
       </c>
       <c r="R7">
-        <v>0.219951143696</v>
+        <v>0.404132841</v>
       </c>
       <c r="S7">
-        <v>0.07826832245687339</v>
+        <v>0.03736433189016073</v>
       </c>
       <c r="T7">
-        <v>0.07826832245687336</v>
+        <v>0.03736433189016074</v>
       </c>
     </row>
   </sheetData>
